--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1855042.086168286</v>
+        <v>1852665.45922092</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>71.96556029497339</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.1205759320737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -820,19 +820,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>68.82202748908144</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>20.20520580535312</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>304.263862817123</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>195.6742208912075</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>148.0977202315502</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.0424133190815</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>125.4641862354862</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>53.43995086960473</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>19.68350351218382</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172153</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>38.37250637580554</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,13 +1765,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763389</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>157.1838954824124</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986295</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>55.30088041042068</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>166.0986152489613</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>95.12712756824166</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2609,7 +2609,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2719,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>140.575894358866</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="32">
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.986897510568</v>
       </c>
     </row>
     <row r="35">
@@ -3424,19 +3424,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>41.16673120696609</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362943</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,16 +3946,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>186.9166231085223</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>168.97752971242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1571.558046306621</v>
+        <v>1146.918698535759</v>
       </c>
       <c r="C2" t="n">
-        <v>1202.59552936621</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D2" t="n">
-        <v>844.329830759459</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E2" t="n">
-        <v>844.329830759459</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4331,10 +4331,10 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4358,7 +4358,7 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
@@ -4370,10 +4370,10 @@
         <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>1644.250531453059</v>
+        <v>1537.058030511571</v>
       </c>
       <c r="Y2" t="n">
-        <v>1644.250531453059</v>
+        <v>1146.918698535759</v>
       </c>
     </row>
     <row r="3">
@@ -4401,25 +4401,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143501</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458217</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O3" t="n">
         <v>1967.526114878149</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.9149192343714</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C4" t="n">
-        <v>664.9787363064645</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D4" t="n">
-        <v>514.8620968941287</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941287</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962184</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
         <v>51.24678656800311</v>
@@ -4486,52 +4486,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1464.345514106159</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1464.345514106159</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1464.345514106159</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1464.345514106159</v>
+        <v>859.5709967387894</v>
       </c>
       <c r="W4" t="n">
-        <v>1464.345514106159</v>
+        <v>570.1538267018288</v>
       </c>
       <c r="X4" t="n">
-        <v>1236.355963208141</v>
+        <v>549.7445279085429</v>
       </c>
       <c r="Y4" t="n">
-        <v>1015.563384064611</v>
+        <v>549.7445279085429</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1302.576789404184</v>
+        <v>747.626661887866</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>747.626661887866</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,13 +4565,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2239.989392753689</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>1986.408332017869</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1655.345444674298</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W5" t="n">
-        <v>1302.576789404184</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="X5" t="n">
-        <v>1302.576789404184</v>
+        <v>1524.365833927799</v>
       </c>
       <c r="Y5" t="n">
-        <v>1302.576789404184</v>
+        <v>1134.226501951988</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>981.8280128167644</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>812.8918298888575</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>662.7751904765217</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>514.8620968941286</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800311</v>
@@ -4723,52 +4723,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1384.269056790534</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1384.269056790534</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1384.269056790534</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>1384.269056790534</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W7" t="n">
-        <v>1384.269056790534</v>
+        <v>638.3033838959707</v>
       </c>
       <c r="X7" t="n">
-        <v>1384.269056790534</v>
+        <v>410.3138329979533</v>
       </c>
       <c r="Y7" t="n">
-        <v>1163.476477647004</v>
+        <v>199.1598801503962</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2184.059060190806</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="C8" t="n">
-        <v>1815.096543250394</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="D8" t="n">
-        <v>1456.830844643644</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="E8" t="n">
-        <v>1071.042592045399</v>
+        <v>527.8767859460538</v>
       </c>
       <c r="F8" t="n">
-        <v>660.0566872557918</v>
+        <v>520.9312851968504</v>
       </c>
       <c r="G8" t="n">
-        <v>244.3519369800806</v>
+        <v>105.2265349211392</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>105.2265349211392</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
         <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2184.059060190806</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2184.059060190806</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2184.059060190806</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X8" t="n">
-        <v>2184.059060190806</v>
+        <v>918.0161179218655</v>
       </c>
       <c r="Y8" t="n">
-        <v>2184.059060190806</v>
+        <v>527.8767859460538</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>388.8041944123875</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>219.8680114844805</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>219.8680114844805</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>219.8680114844805</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>570.4526592426272</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637307</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>951.7772127656175</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>782.8410298377106</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>632.7243904253748</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429818</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429818</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2408.202976129952</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2225.348141784856</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2005.746676807797</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1716.671450151995</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1461.986961946108</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1172.569791909148</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1172.569791909148</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>951.7772127656175</v>
       </c>
     </row>
     <row r="14">
@@ -5264,7 +5264,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,19 +5273,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355937</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452613</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718132</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="17">
@@ -5495,19 +5495,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192599</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424028</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424028</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>378.6527890600097</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>231.7628415620993</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>231.7628415620993</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5732,10 +5732,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,28 +5829,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>800.5007694647281</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>632.7243904253733</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253733</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429802</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1492342949679</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,16 +6066,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,10 +6224,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6470,13 +6470,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6780,13 +6780,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
         <v>1307.627092998424</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
         <v>402.7245934908939</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="35">
@@ -6923,10 +6923,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>768.5380889459582</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>599.6019060180513</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>449.4852666057155</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7129,16 +7129,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>950.1865537761979</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7187,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7254,10 +7254,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
         <v>680.0291294438176</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7594,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7731,7 +7731,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7831,25 +7831,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780647</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>21.18099370047537</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.4490126143851</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>255.8421700460948</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.9377812015499</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10838,7 +10838,7 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>28.00274033431615</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,13 +23653,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372228889</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>61.40075786968239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>84.99383243580317</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>1.14820584966651</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>84.99383243580198</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>72.11969353038617</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24607,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>105.2672314396031</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462256</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345294982</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>15.8825942891924</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,16 +25834,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>99.26785128072183</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>873782.0343168798</v>
+        <v>873782.0343168799</v>
       </c>
     </row>
     <row r="6">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>873782.0343168799</v>
+        <v>873782.0343168798</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>554203.1946583914</v>
+      </c>
+      <c r="C2" t="n">
         <v>554203.1946583915</v>
       </c>
-      <c r="C2" t="n">
-        <v>554203.1946583913</v>
-      </c>
       <c r="D2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>544823.954790754</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="G2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907541</v>
-      </c>
       <c r="I2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="L2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="N2" t="n">
         <v>544823.9547907539</v>
       </c>
-      <c r="M2" t="n">
-        <v>544823.9547907538</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>544823.9547907537</v>
       </c>
-      <c r="O2" t="n">
-        <v>544823.9547907542</v>
-      </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707335</v>
+        <v>6897.424496707366</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707362</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707371</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="I4" t="n">
-        <v>6897.424496707372</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707374</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707365</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707368</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.424496707359</v>
       </c>
-      <c r="L4" t="n">
-        <v>6897.42449670737</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707372</v>
-      </c>
       <c r="P4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-785396.0881889976</v>
+        <v>-785396.0881889979</v>
       </c>
       <c r="C6" t="n">
-        <v>329355.6953869216</v>
+        <v>329355.6953869219</v>
       </c>
       <c r="D6" t="n">
-        <v>329355.6953869216</v>
+        <v>329355.6953869218</v>
       </c>
       <c r="E6" t="n">
-        <v>-70681.44115440662</v>
+        <v>-70716.17907984195</v>
       </c>
       <c r="F6" t="n">
-        <v>436804.0004701395</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="G6" t="n">
-        <v>436804.0004701395</v>
+        <v>436769.2625447034</v>
       </c>
       <c r="H6" t="n">
-        <v>436804.0004701396</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="I6" t="n">
-        <v>436804.0004701396</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="J6" t="n">
-        <v>269198.8226601569</v>
+        <v>269164.084734721</v>
       </c>
       <c r="K6" t="n">
-        <v>436804.0004701394</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="L6" t="n">
-        <v>436804.0004701394</v>
+        <v>436769.2625447034</v>
       </c>
       <c r="M6" t="n">
-        <v>304196.7067412126</v>
+        <v>304161.9688157768</v>
       </c>
       <c r="N6" t="n">
-        <v>436804.0004701391</v>
+        <v>436769.2625447037</v>
       </c>
       <c r="O6" t="n">
-        <v>436804.0004701397</v>
+        <v>436769.2625447034</v>
       </c>
       <c r="P6" t="n">
-        <v>436804.0004701393</v>
+        <v>436769.2625447037</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>934.0648921175392</v>
+      </c>
+      <c r="C3" t="n">
         <v>934.0648921175391</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175392</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>310.7682813685072</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>263.6105247463954</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,19 +27540,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,25 +27585,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>125.8404328726561</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>205.504449583684</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>50.41917880355999</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>10.98396408902627</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>46.56474013018726</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.542240033013258</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>175.5543663269191</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12.26996180286577</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>125.7375445107474</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193757</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-8.264734206300728e-14</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28524,7 +28524,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30396,7 +30396,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-2.711780146180205e-13</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,43 +31279,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,7 +31370,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31379,25 +31379,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31470,13 +31470,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>506.566534435233</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,13 +32309,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33029,10 +33029,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33047,7 +33047,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33500,16 +33500,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33734,19 +33734,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,10 +34217,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34451,10 +34451,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215495</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>356.6056756965984</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>553.3803448964255</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,13 +35030,13 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35103,7 +35103,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35112,7 +35112,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>591.2668520422178</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>364.4325005132147</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,25 +35802,25 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36695,7 +36695,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37148,16 +37148,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37558,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38099,10 +38099,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
